--- a/DNDC_land_simulations_accounting_file.xlsx
+++ b/DNDC_land_simulations_accounting_file.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA008B0-3642-496C-95AD-50288DB46A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF261B8C-03CD-47F3-B5D1-8AFE2CBF3573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{E539F689-0167-4B50-B175-115DE346C363}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{E539F689-0167-4B50-B175-115DE346C363}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="3" r:id="rId1"/>
+    <sheet name="Baseline" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
   <si>
     <t>Maize</t>
   </si>
@@ -45,35 +46,98 @@
     <t>Nat_pasture</t>
   </si>
   <si>
-    <t>Land use</t>
-  </si>
-  <si>
-    <t>Management type</t>
-  </si>
-  <si>
-    <t>Agro-climatic</t>
-  </si>
-  <si>
-    <t>Tropical semi-arid highlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tropical humid </t>
-  </si>
-  <si>
     <t>N2O</t>
   </si>
   <si>
-    <t>__</t>
-  </si>
-  <si>
-    <t>CO2</t>
+    <t>Semi-arid</t>
+  </si>
+  <si>
+    <t>Trop. High. sub-humid</t>
+  </si>
+  <si>
+    <t>Sub-humid</t>
+  </si>
+  <si>
+    <t>Trop. High. Humid</t>
+  </si>
+  <si>
+    <t>Humid</t>
+  </si>
+  <si>
+    <t>Arid</t>
+  </si>
+  <si>
+    <t>N2O (kg/ha/yr or season)</t>
+  </si>
+  <si>
+    <t>% of land</t>
+  </si>
+  <si>
+    <t>Delta % land from Baseline</t>
+  </si>
+  <si>
+    <t>Soil C stock (kg/ha) (top 50 cm)</t>
+  </si>
+  <si>
+    <t>Hectares per TLU</t>
+  </si>
+  <si>
+    <t>Flux parameters</t>
+  </si>
+  <si>
+    <t>Stock parameters</t>
+  </si>
+  <si>
+    <t>Net</t>
+  </si>
+  <si>
+    <t>N2O (kg/yr)</t>
+  </si>
+  <si>
+    <t>Calculated emissions from system</t>
+  </si>
+  <si>
+    <t>CO2 from annual flux(kg/yr)</t>
+  </si>
+  <si>
+    <t>Agro-climatic zone</t>
+  </si>
+  <si>
+    <t>Land use parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feed type </t>
+  </si>
+  <si>
+    <t>CO2 (annual flux) (kg/ha/yr or season)</t>
+  </si>
+  <si>
+    <t>Data from DNDC</t>
+  </si>
+  <si>
+    <t>Data from scenario definitions</t>
+  </si>
+  <si>
+    <t>Simulation results</t>
+  </si>
+  <si>
+    <t>Delta C stock (kg/yr)</t>
+  </si>
+  <si>
+    <t>CO2 from stock change (kg/yr)</t>
+  </si>
+  <si>
+    <t>Global warming potentials</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +153,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri   "/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -110,9 +197,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,84 +538,1037 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C40D01-EEF1-44C5-9F19-7523098BD876}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D01594-2F9A-4AF3-A0A6-80A2E10FD045}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" customWidth="1"/>
+    <col min="1" max="6" width="25.81640625" customWidth="1"/>
+    <col min="7" max="7" width="22.6328125" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" customWidth="1"/>
+    <col min="9" max="9" width="22.36328125" customWidth="1"/>
+    <col min="10" max="10" width="15.1796875" customWidth="1"/>
+    <col min="11" max="11" width="22.7265625" customWidth="1"/>
+    <col min="12" max="12" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>500</v>
+      </c>
+      <c r="G3" s="7">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7">
+        <v>10</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <f>G3*C3*D3/100</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="K3" s="10">
+        <f>H3*C3*D3/100</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="L3" s="10">
+        <f>I3*C3*D3/100</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="10">
+        <f>J3*Main!B$6+K3+L3</f>
+        <v>4.4160000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D4" s="12">
+        <f>100*0.02/0.18</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="E4" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>500</v>
+      </c>
+      <c r="G4" s="7">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7">
+        <v>10</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" ref="J4:J20" si="0">G4*C4*D4/100</f>
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="K4" s="10">
+        <f t="shared" ref="K4:K20" si="1">H4*C4*D4/100</f>
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="L4" s="10">
+        <f>I4*C4*D4/100</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="10">
+        <f>J4*Main!B$6+K4+L4</f>
+        <v>85.866666666666674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D5" s="12">
+        <f>100*0.02/0.18</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="E5" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>500</v>
+      </c>
+      <c r="G5" s="7">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7">
+        <v>10</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" si="0"/>
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="K5" s="10">
+        <f t="shared" si="1"/>
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="L5" s="10">
+        <f t="shared" ref="L5:L20" si="2">I5*C5*D5/100</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="10">
+        <f>J5*Main!B$6+K5+L5</f>
+        <v>85.866666666666674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D6" s="12">
+        <f>100*0.02/0.18</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="E6" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>500</v>
+      </c>
+      <c r="G6" s="7">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7">
+        <v>10</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <f t="shared" si="0"/>
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" si="1"/>
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="L6" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="10">
+        <f>J6*Main!B$6+K6+L6</f>
+        <v>85.866666666666674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D7" s="12">
+        <f>100*0.02/0.18</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="E7" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>500</v>
+      </c>
+      <c r="G7" s="7">
+        <v>10</v>
+      </c>
+      <c r="H7" s="7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" si="0"/>
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" si="1"/>
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="L7" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
+        <f>J7*Main!B$6+K7+L7</f>
+        <v>85.866666666666674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>-2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>500</v>
+      </c>
+      <c r="G8" s="7">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7">
+        <v>10</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="10">
+        <f>J8*Main!B$6+K8+L8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C9" s="8">
+        <f>C3</f>
+        <v>0.16</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="7">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7">
+        <v>10</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" ref="I9:I14" si="3">IF(E9&gt;0,(F9-F3),0)*E9*C9/100</f>
+        <v>1.6</v>
+      </c>
+      <c r="J9" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="10">
+        <f>I9*C9*D9/100</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="10">
+        <f>J9*Main!B$6+K9+L9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" ref="C10:D20" si="4">C4</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D10" s="12">
+        <v>9</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="7">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7">
+        <v>10</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="3"/>
+        <v>2.8</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" si="0"/>
+        <v>0.252</v>
+      </c>
+      <c r="K10" s="10">
+        <f t="shared" si="1"/>
+        <v>0.252</v>
+      </c>
+      <c r="L10" s="10">
+        <f t="shared" si="2"/>
+        <v>7.0559999999999998E-2</v>
+      </c>
+      <c r="M10" s="10">
+        <f>J10*Main!B$6+K10+L10</f>
+        <v>69.622559999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="4"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D11" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
+      <c r="E11" s="9">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="7">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7">
+        <v>10</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="3"/>
+        <v>2.8</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="0"/>
+        <v>0.252</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" si="1"/>
+        <v>0.252</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" si="2"/>
+        <v>7.0559999999999998E-2</v>
+      </c>
+      <c r="M11" s="10">
+        <f>J11*Main!B$6+K11+L11</f>
+        <v>69.622559999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C12" s="8">
+        <f t="shared" si="4"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D12" s="12">
+        <v>9</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="7">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7">
+        <v>10</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="3"/>
+        <v>2.8</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="0"/>
+        <v>0.252</v>
+      </c>
+      <c r="K12" s="10">
+        <f t="shared" si="1"/>
+        <v>0.252</v>
+      </c>
+      <c r="L12" s="10">
+        <f t="shared" si="2"/>
+        <v>7.0559999999999998E-2</v>
+      </c>
+      <c r="M12" s="10">
+        <f>J12*Main!B$6+K12+L12</f>
+        <v>69.622559999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="4"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D13" s="12">
+        <v>9</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="7">
+        <v>10</v>
+      </c>
+      <c r="H13" s="7">
+        <v>10</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="3"/>
+        <v>2.8</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="0"/>
+        <v>0.252</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" si="1"/>
+        <v>0.252</v>
+      </c>
+      <c r="L13" s="10">
+        <f t="shared" si="2"/>
+        <v>7.0559999999999998E-2</v>
+      </c>
+      <c r="M13" s="10">
+        <f>J13*Main!B$6+K13+L13</f>
+        <v>69.622559999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="7">
+        <v>10</v>
+      </c>
+      <c r="H14" s="7">
+        <v>10</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="10">
+        <f>J14*Main!B$6+K14+L14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" si="4"/>
+        <v>0.16</v>
+      </c>
+      <c r="D15" s="12">
+        <v>99</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="7">
+        <v>10</v>
+      </c>
+      <c r="H15" s="7">
+        <v>10</v>
+      </c>
+      <c r="I15" s="10">
+        <f>IF(E15&gt;0,(F15-F3),0)*E15*C15/100</f>
+        <v>1.6</v>
+      </c>
+      <c r="J15" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="K15" s="10">
+        <f t="shared" si="1"/>
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="L15" s="10">
+        <f t="shared" si="2"/>
+        <v>0.25344</v>
+      </c>
+      <c r="M15" s="10">
+        <f>J15*Main!B$6+K15+L15</f>
+        <v>437.43744000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" si="4"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D16" s="12">
+        <v>79</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="7">
+        <v>10</v>
+      </c>
+      <c r="H16" s="7">
+        <v>10</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" ref="I16:I20" si="5">IF(E16&gt;0,(F16-F4),0)*E16*C16/100</f>
+        <v>2.8</v>
+      </c>
+      <c r="J16" s="10">
+        <f t="shared" si="0"/>
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="K16" s="10">
+        <f t="shared" si="1"/>
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="L16" s="10">
+        <f t="shared" si="2"/>
+        <v>0.61936000000000002</v>
+      </c>
+      <c r="M16" s="10">
+        <f>J16*Main!B$6+K16+L16</f>
+        <v>611.13136000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" si="4"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D17" s="12">
+        <v>79</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="7">
+        <v>10</v>
+      </c>
+      <c r="H17" s="7">
+        <v>10</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="5"/>
+        <v>2.8</v>
+      </c>
+      <c r="J17" s="10">
+        <f t="shared" si="0"/>
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="K17" s="10">
+        <f t="shared" si="1"/>
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="L17" s="10">
+        <f t="shared" si="2"/>
+        <v>0.61936000000000002</v>
+      </c>
+      <c r="M17" s="10">
+        <f>J17*Main!B$6+K17+L17</f>
+        <v>611.13136000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8">
+        <f t="shared" si="4"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D18" s="12">
+        <v>79</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="7">
+        <v>10</v>
+      </c>
+      <c r="H18" s="7">
+        <v>10</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="5"/>
+        <v>2.8</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" si="0"/>
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="K18" s="10">
+        <f t="shared" si="1"/>
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="L18" s="10">
+        <f t="shared" si="2"/>
+        <v>0.61936000000000002</v>
+      </c>
+      <c r="M18" s="10">
+        <f>J18*Main!B$6+K18+L18</f>
+        <v>611.13136000000009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" si="4"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D19" s="12">
+        <v>79</v>
+      </c>
+      <c r="E19" s="9">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G19" s="7">
+        <v>10</v>
+      </c>
+      <c r="H19" s="7">
+        <v>10</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="5"/>
+        <v>2.8</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" si="0"/>
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="K19" s="10">
+        <f t="shared" si="1"/>
+        <v>2.2120000000000002</v>
+      </c>
+      <c r="L19" s="10">
+        <f t="shared" si="2"/>
+        <v>0.61936000000000002</v>
+      </c>
+      <c r="M19" s="10">
+        <f>J19*Main!B$6+K19+L19</f>
+        <v>611.13136000000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>2</v>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="D20" s="12">
+        <v>100</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="7">
+        <v>10</v>
+      </c>
+      <c r="H20" s="7">
+        <v>10</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="J20" s="10">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="K20" s="10">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="L20" s="10">
+        <f t="shared" si="2"/>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="M20" s="10">
+        <f>J20*Main!B$6+K20+L20</f>
+        <v>414.22500000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="10">
+        <f>M3+M9+M15</f>
+        <v>441.85344000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" ref="M23:M27" si="6">M4+M10+M16</f>
+        <v>766.62058666666678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" si="6"/>
+        <v>766.62058666666678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="10">
+        <f t="shared" si="6"/>
+        <v>766.62058666666678</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="6"/>
+        <v>766.62058666666678</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" si="6"/>
+        <v>414.22500000000002</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="C1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/DNDC_land_simulations_accounting_file.xlsx
+++ b/DNDC_land_simulations_accounting_file.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\go29gaj\Documents\Github\DNDC Modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF261B8C-03CD-47F3-B5D1-8AFE2CBF3573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE3E5B0-A6F1-4B15-B265-ED19C5034269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{E539F689-0167-4B50-B175-115DE346C363}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{E539F689-0167-4B50-B175-115DE346C363}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
-    <sheet name="Baseline" sheetId="1" r:id="rId2"/>
+    <sheet name="Baseline" sheetId="4" r:id="rId2"/>
+    <sheet name="Rhodes_Ext" sheetId="1" r:id="rId3"/>
+    <sheet name="Maize_Ext" sheetId="5" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Baseline!$A$1:$M$20</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="31">
   <si>
     <t>Maize</t>
   </si>
@@ -71,9 +76,6 @@
   </si>
   <si>
     <t>% of land</t>
-  </si>
-  <si>
-    <t>Delta % land from Baseline</t>
   </si>
   <si>
     <t>Soil C stock (kg/ha) (top 50 cm)</t>
@@ -115,29 +117,33 @@
     <t>Data from DNDC</t>
   </si>
   <si>
-    <t>Data from scenario definitions</t>
-  </si>
-  <si>
-    <t>Simulation results</t>
-  </si>
-  <si>
     <t>Delta C stock (kg/yr)</t>
   </si>
   <si>
     <t>CO2 from stock change (kg/yr)</t>
   </si>
   <si>
-    <t>Global warming potentials</t>
+    <t>From definitions of scenarios</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Global warming potentials (kg CO2eq)</t>
+  </si>
+  <si>
+    <t>Delta (ha) land from Baseline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +162,10 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri   "/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri   "/>
     </font>
   </fonts>
@@ -197,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -215,14 +225,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -542,35 +561,35 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="A3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -587,14 +606,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D01594-2F9A-4AF3-A0A6-80A2E10FD045}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C5B5FA-172A-486F-ABE1-61A9675C7344}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -610,64 +629,64 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="11" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="G1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13">
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -680,11 +699,11 @@
       <c r="C3" s="8">
         <v>0.16</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="9">
-        <v>-2</v>
+      <c r="E3" s="17">
+        <v>0</v>
       </c>
       <c r="F3" s="7">
         <v>500</v>
@@ -695,22 +714,22 @@
       <c r="H3" s="7">
         <v>10</v>
       </c>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
-      <c r="J3" s="10">
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
         <f>G3*C3*D3/100</f>
         <v>1.6E-2</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="13">
         <f>H3*C3*D3/100</f>
         <v>1.6E-2</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="13">
         <f>I3*C3*D3/100</f>
         <v>0</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="14">
         <f>J3*Main!B$6+K3+L3</f>
         <v>4.4160000000000004</v>
       </c>
@@ -725,12 +744,12 @@
       <c r="C4" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <f>100*0.02/0.18</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="E4" s="9">
-        <v>-2</v>
+      <c r="E4" s="17">
+        <v>0</v>
       </c>
       <c r="F4" s="7">
         <v>500</v>
@@ -741,22 +760,22 @@
       <c r="H4" s="7">
         <v>10</v>
       </c>
-      <c r="I4" s="10">
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
         <f t="shared" ref="J4:J20" si="0">G4*C4*D4/100</f>
         <v>0.31111111111111112</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="13">
         <f t="shared" ref="K4:K20" si="1">H4*C4*D4/100</f>
         <v>0.31111111111111112</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="13">
         <f>I4*C4*D4/100</f>
         <v>0</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="14">
         <f>J4*Main!B$6+K4+L4</f>
         <v>85.866666666666674</v>
       </c>
@@ -771,12 +790,12 @@
       <c r="C5" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <f>100*0.02/0.18</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="E5" s="9">
-        <v>-2</v>
+      <c r="E5" s="17">
+        <v>0</v>
       </c>
       <c r="F5" s="7">
         <v>500</v>
@@ -787,22 +806,22 @@
       <c r="H5" s="7">
         <v>10</v>
       </c>
-      <c r="I5" s="10">
-        <v>0</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
         <f t="shared" si="0"/>
         <v>0.31111111111111112</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="13">
         <f t="shared" si="1"/>
         <v>0.31111111111111112</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="13">
         <f t="shared" ref="L5:L20" si="2">I5*C5*D5/100</f>
         <v>0</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="14">
         <f>J5*Main!B$6+K5+L5</f>
         <v>85.866666666666674</v>
       </c>
@@ -817,12 +836,12 @@
       <c r="C6" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <f>100*0.02/0.18</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="E6" s="9">
-        <v>-2</v>
+      <c r="E6" s="17">
+        <v>0</v>
       </c>
       <c r="F6" s="7">
         <v>500</v>
@@ -833,22 +852,22 @@
       <c r="H6" s="7">
         <v>10</v>
       </c>
-      <c r="I6" s="10">
-        <v>0</v>
-      </c>
-      <c r="J6" s="10">
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
         <f t="shared" si="0"/>
         <v>0.31111111111111112</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="13">
         <f t="shared" si="1"/>
         <v>0.31111111111111112</v>
       </c>
-      <c r="L6" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="10">
+      <c r="L6" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="14">
         <f>J6*Main!B$6+K6+L6</f>
         <v>85.866666666666674</v>
       </c>
@@ -863,12 +882,12 @@
       <c r="C7" s="8">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <f>100*0.02/0.18</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="E7" s="9">
-        <v>-2</v>
+      <c r="E7" s="17">
+        <v>0</v>
       </c>
       <c r="F7" s="7">
         <v>500</v>
@@ -879,22 +898,22 @@
       <c r="H7" s="7">
         <v>10</v>
       </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
         <f t="shared" si="0"/>
         <v>0.31111111111111112</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="13">
         <f t="shared" si="1"/>
         <v>0.31111111111111112</v>
       </c>
-      <c r="L7" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="10">
+      <c r="L7" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="14">
         <f>J7*Main!B$6+K7+L7</f>
         <v>85.866666666666674</v>
       </c>
@@ -909,11 +928,11 @@
       <c r="C8" s="8">
         <v>0.15</v>
       </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="9">
-        <v>-2</v>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0</v>
       </c>
       <c r="F8" s="7">
         <v>500</v>
@@ -924,22 +943,22 @@
       <c r="H8" s="7">
         <v>10</v>
       </c>
-      <c r="I8" s="10">
-        <v>0</v>
-      </c>
-      <c r="J8" s="10">
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="10">
+      <c r="K8" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="14">
         <f>J8*Main!B$6+K8+L8</f>
         <v>0</v>
       </c>
@@ -955,11 +974,11 @@
         <f>C3</f>
         <v>0.16</v>
       </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
-        <v>2</v>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0</v>
       </c>
       <c r="F9" s="7">
         <v>1000</v>
@@ -970,23 +989,23 @@
       <c r="H9" s="7">
         <v>10</v>
       </c>
-      <c r="I9" s="10">
-        <f t="shared" ref="I9:I14" si="3">IF(E9&gt;0,(F9-F3),0)*E9*C9/100</f>
-        <v>1.6</v>
-      </c>
-      <c r="J9" s="10">
+      <c r="I9" s="9">
+        <f>IF(E9&gt;0,(F9-F15),0)*E9*C9/100</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="10">
+      <c r="K9" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
         <f>I9*C9*D9/100</f>
         <v>0</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="14">
         <f>J9*Main!B$6+K9+L9</f>
         <v>0</v>
       </c>
@@ -999,14 +1018,14 @@
         <v>1</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" ref="C10:D20" si="4">C4</f>
+        <f t="shared" ref="C10:D20" si="3">C4</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>9</v>
       </c>
-      <c r="E10" s="9">
-        <v>2</v>
+      <c r="E10" s="17">
+        <v>0</v>
       </c>
       <c r="F10" s="7">
         <v>1000</v>
@@ -1017,25 +1036,25 @@
       <c r="H10" s="7">
         <v>10</v>
       </c>
-      <c r="I10" s="10">
-        <f t="shared" si="3"/>
-        <v>2.8</v>
-      </c>
-      <c r="J10" s="10">
+      <c r="I10" s="9">
+        <f t="shared" ref="I10:I14" si="4">IF(E10&gt;0,(F10-F16),0)*E10*C10/100</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
         <f t="shared" si="0"/>
         <v>0.252</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="13">
         <f t="shared" si="1"/>
         <v>0.252</v>
       </c>
-      <c r="L10" s="10">
-        <f t="shared" si="2"/>
-        <v>7.0559999999999998E-2</v>
-      </c>
-      <c r="M10" s="10">
+      <c r="L10" s="13">
+        <f>I10*C10*D10/100</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="14">
         <f>J10*Main!B$6+K10+L10</f>
-        <v>69.622559999999993</v>
+        <v>69.551999999999992</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1046,14 +1065,14 @@
         <v>1</v>
       </c>
       <c r="C11" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>9</v>
       </c>
-      <c r="E11" s="9">
-        <v>2</v>
+      <c r="E11" s="17">
+        <v>0</v>
       </c>
       <c r="F11" s="7">
         <v>1000</v>
@@ -1064,25 +1083,25 @@
       <c r="H11" s="7">
         <v>10</v>
       </c>
-      <c r="I11" s="10">
-        <f t="shared" si="3"/>
-        <v>2.8</v>
-      </c>
-      <c r="J11" s="10">
+      <c r="I11" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
         <f t="shared" si="0"/>
         <v>0.252</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="13">
         <f t="shared" si="1"/>
         <v>0.252</v>
       </c>
-      <c r="L11" s="10">
-        <f t="shared" si="2"/>
-        <v>7.0559999999999998E-2</v>
-      </c>
-      <c r="M11" s="10">
+      <c r="L11" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="14">
         <f>J11*Main!B$6+K11+L11</f>
-        <v>69.622559999999993</v>
+        <v>69.551999999999992</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1093,14 +1112,14 @@
         <v>1</v>
       </c>
       <c r="C12" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>9</v>
       </c>
-      <c r="E12" s="9">
-        <v>2</v>
+      <c r="E12" s="17">
+        <v>0</v>
       </c>
       <c r="F12" s="7">
         <v>1000</v>
@@ -1111,25 +1130,25 @@
       <c r="H12" s="7">
         <v>10</v>
       </c>
-      <c r="I12" s="10">
-        <f t="shared" si="3"/>
-        <v>2.8</v>
-      </c>
-      <c r="J12" s="10">
+      <c r="I12" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
         <f t="shared" si="0"/>
         <v>0.252</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="13">
         <f t="shared" si="1"/>
         <v>0.252</v>
       </c>
-      <c r="L12" s="10">
-        <f t="shared" si="2"/>
-        <v>7.0559999999999998E-2</v>
-      </c>
-      <c r="M12" s="10">
+      <c r="L12" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="14">
         <f>J12*Main!B$6+K12+L12</f>
-        <v>69.622559999999993</v>
+        <v>69.551999999999992</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1140,14 +1159,14 @@
         <v>1</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>9</v>
       </c>
-      <c r="E13" s="9">
-        <v>2</v>
+      <c r="E13" s="17">
+        <v>0</v>
       </c>
       <c r="F13" s="7">
         <v>1000</v>
@@ -1158,25 +1177,25 @@
       <c r="H13" s="7">
         <v>10</v>
       </c>
-      <c r="I13" s="10">
-        <f t="shared" si="3"/>
-        <v>2.8</v>
-      </c>
-      <c r="J13" s="10">
+      <c r="I13" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
         <f t="shared" si="0"/>
         <v>0.252</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="13">
         <f t="shared" si="1"/>
         <v>0.252</v>
       </c>
-      <c r="L13" s="10">
-        <f t="shared" si="2"/>
-        <v>7.0559999999999998E-2</v>
-      </c>
-      <c r="M13" s="10">
+      <c r="L13" s="13">
+        <f>I13*C13*D13/100</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="14">
         <f>J13*Main!B$6+K13+L13</f>
-        <v>69.622559999999993</v>
+        <v>69.551999999999992</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1187,15 +1206,15 @@
         <v>1</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
-      <c r="D14" s="12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
-        <v>2</v>
+      <c r="D14" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0</v>
       </c>
       <c r="F14" s="7">
         <v>1000</v>
@@ -1206,23 +1225,23 @@
       <c r="H14" s="7">
         <v>10</v>
       </c>
-      <c r="I14" s="10">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
-      </c>
-      <c r="J14" s="10">
+      <c r="I14" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M14" s="10">
+      <c r="K14" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="14">
         <f>J14*Main!B$6+K14+L14</f>
         <v>0</v>
       </c>
@@ -1235,17 +1254,17 @@
         <v>2</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.16</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>99</v>
       </c>
-      <c r="E15" s="9">
-        <v>2</v>
+      <c r="E15" s="17">
+        <v>0</v>
       </c>
       <c r="F15" s="7">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G15" s="7">
         <v>10</v>
@@ -1253,25 +1272,24 @@
       <c r="H15" s="7">
         <v>10</v>
       </c>
-      <c r="I15" s="10">
-        <f>IF(E15&gt;0,(F15-F3),0)*E15*C15/100</f>
-        <v>1.6</v>
-      </c>
-      <c r="J15" s="10">
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
         <f t="shared" si="0"/>
         <v>1.5840000000000001</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="13">
         <f t="shared" si="1"/>
         <v>1.5840000000000001</v>
       </c>
-      <c r="L15" s="10">
-        <f t="shared" si="2"/>
-        <v>0.25344</v>
-      </c>
-      <c r="M15" s="10">
+      <c r="L15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="14">
         <f>J15*Main!B$6+K15+L15</f>
-        <v>437.43744000000004</v>
+        <v>437.18400000000003</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1282,17 +1300,17 @@
         <v>2</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>79</v>
       </c>
-      <c r="E16" s="9">
-        <v>2</v>
+      <c r="E16" s="17">
+        <v>0</v>
       </c>
       <c r="F16" s="7">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G16" s="7">
         <v>10</v>
@@ -1300,25 +1318,24 @@
       <c r="H16" s="7">
         <v>10</v>
       </c>
-      <c r="I16" s="10">
-        <f t="shared" ref="I16:I20" si="5">IF(E16&gt;0,(F16-F4),0)*E16*C16/100</f>
-        <v>2.8</v>
-      </c>
-      <c r="J16" s="10">
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
         <f t="shared" si="0"/>
         <v>2.2120000000000002</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="13">
         <f t="shared" si="1"/>
         <v>2.2120000000000002</v>
       </c>
-      <c r="L16" s="10">
-        <f t="shared" si="2"/>
-        <v>0.61936000000000002</v>
-      </c>
-      <c r="M16" s="10">
+      <c r="L16" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="14">
         <f>J16*Main!B$6+K16+L16</f>
-        <v>611.13136000000009</v>
+        <v>610.51200000000006</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1329,17 +1346,17 @@
         <v>2</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>79</v>
       </c>
-      <c r="E17" s="9">
-        <v>2</v>
+      <c r="E17" s="17">
+        <v>0</v>
       </c>
       <c r="F17" s="7">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G17" s="7">
         <v>10</v>
@@ -1347,25 +1364,24 @@
       <c r="H17" s="7">
         <v>10</v>
       </c>
-      <c r="I17" s="10">
-        <f t="shared" si="5"/>
-        <v>2.8</v>
-      </c>
-      <c r="J17" s="10">
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
         <f t="shared" si="0"/>
         <v>2.2120000000000002</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="13">
         <f t="shared" si="1"/>
         <v>2.2120000000000002</v>
       </c>
-      <c r="L17" s="10">
-        <f t="shared" si="2"/>
-        <v>0.61936000000000002</v>
-      </c>
-      <c r="M17" s="10">
+      <c r="L17" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="14">
         <f>J17*Main!B$6+K17+L17</f>
-        <v>611.13136000000009</v>
+        <v>610.51200000000006</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1376,17 +1392,17 @@
         <v>2</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>79</v>
       </c>
-      <c r="E18" s="9">
-        <v>2</v>
+      <c r="E18" s="17">
+        <v>0</v>
       </c>
       <c r="F18" s="7">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G18" s="7">
         <v>10</v>
@@ -1394,25 +1410,24 @@
       <c r="H18" s="7">
         <v>10</v>
       </c>
-      <c r="I18" s="10">
-        <f t="shared" si="5"/>
-        <v>2.8</v>
-      </c>
-      <c r="J18" s="10">
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13">
         <f t="shared" si="0"/>
         <v>2.2120000000000002</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="13">
         <f t="shared" si="1"/>
         <v>2.2120000000000002</v>
       </c>
-      <c r="L18" s="10">
-        <f t="shared" si="2"/>
-        <v>0.61936000000000002</v>
-      </c>
-      <c r="M18" s="10">
+      <c r="L18" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="14">
         <f>J18*Main!B$6+K18+L18</f>
-        <v>611.13136000000009</v>
+        <v>610.51200000000006</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1423,17 +1438,17 @@
         <v>2</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>79</v>
       </c>
-      <c r="E19" s="9">
-        <v>2</v>
+      <c r="E19" s="17">
+        <v>0</v>
       </c>
       <c r="F19" s="7">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G19" s="7">
         <v>10</v>
@@ -1441,25 +1456,24 @@
       <c r="H19" s="7">
         <v>10</v>
       </c>
-      <c r="I19" s="10">
-        <f t="shared" si="5"/>
-        <v>2.8</v>
-      </c>
-      <c r="J19" s="10">
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13">
         <f t="shared" si="0"/>
         <v>2.2120000000000002</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="13">
         <f t="shared" si="1"/>
         <v>2.2120000000000002</v>
       </c>
-      <c r="L19" s="10">
-        <f t="shared" si="2"/>
-        <v>0.61936000000000002</v>
-      </c>
-      <c r="M19" s="10">
+      <c r="L19" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="14">
         <f>J19*Main!B$6+K19+L19</f>
-        <v>611.13136000000009</v>
+        <v>610.51200000000006</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1470,17 +1484,17 @@
         <v>2</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>100</v>
       </c>
-      <c r="E20" s="9">
-        <v>2</v>
+      <c r="E20" s="17">
+        <v>0</v>
       </c>
       <c r="F20" s="7">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G20" s="7">
         <v>10</v>
@@ -1488,79 +1502,1098 @@
       <c r="H20" s="7">
         <v>10</v>
       </c>
-      <c r="I20" s="10">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
-      </c>
-      <c r="J20" s="10">
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="13">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="13">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="L20" s="10">
-        <f t="shared" si="2"/>
-        <v>0.22499999999999998</v>
-      </c>
-      <c r="M20" s="10">
+      <c r="L20" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="14">
         <f>J20*Main!B$6+K20+L20</f>
-        <v>414.22500000000002</v>
-      </c>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="M21" s="15"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="14">
         <f>M3+M9+M15</f>
-        <v>441.85344000000003</v>
+        <v>441.6</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="M23" s="10">
-        <f t="shared" ref="M23:M27" si="6">M4+M10+M16</f>
-        <v>766.62058666666678</v>
+      <c r="M23" s="14">
+        <f t="shared" ref="M23:M27" si="5">M4+M10+M16</f>
+        <v>765.93066666666675</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M24" s="10">
-        <f t="shared" si="6"/>
-        <v>766.62058666666678</v>
+      <c r="M24" s="14">
+        <f t="shared" si="5"/>
+        <v>765.93066666666675</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M25" s="10">
-        <f t="shared" si="6"/>
-        <v>766.62058666666678</v>
+      <c r="M25" s="14">
+        <f t="shared" si="5"/>
+        <v>765.93066666666675</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="10">
-        <f t="shared" si="6"/>
-        <v>766.62058666666678</v>
+      <c r="M26" s="14">
+        <f t="shared" si="5"/>
+        <v>765.93066666666675</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M27" s="10">
+      <c r="M27" s="14">
+        <f t="shared" si="5"/>
+        <v>414</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M20" xr:uid="{48C5B5FA-172A-486F-ABE1-61A9675C7344}">
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+    <filterColumn colId="7" showButton="0"/>
+    <filterColumn colId="9" showButton="0"/>
+    <filterColumn colId="10" showButton="0"/>
+    <filterColumn colId="11" showButton="0"/>
+  </autoFilter>
+  <mergeCells count="3">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D01594-2F9A-4AF3-A0A6-80A2E10FD045}">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="6" width="25.81640625" customWidth="1"/>
+    <col min="7" max="7" width="22.6328125" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" customWidth="1"/>
+    <col min="9" max="9" width="22.36328125" customWidth="1"/>
+    <col min="10" max="10" width="15.1796875" customWidth="1"/>
+    <col min="11" max="11" width="22.7265625" customWidth="1"/>
+    <col min="12" max="12" width="18.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
+      <c r="E3" s="16">
+        <f>(D3*C3)/100-(Baseline!C3*Baseline!D3)/100</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="7">
+        <v>500</v>
+      </c>
+      <c r="G3" s="7">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7">
+        <v>10</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
+        <f>G3*C3*D3/100</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="K3" s="13">
+        <f>H3*C3*D3/100</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="L3" s="13">
+        <f>I3*C3*D3/100</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="14">
+        <f>J3*Main!B$6+K3+L3</f>
+        <v>4.4160000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D4" s="11">
+        <f>100*0.02/0.18</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="E4" s="16">
+        <f>(D4*C4)/100-(Baseline!C4*Baseline!D4)/100</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>500</v>
+      </c>
+      <c r="G4" s="7">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7">
+        <v>10</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0</v>
+      </c>
+      <c r="J4" s="13">
+        <f t="shared" ref="J4:J20" si="0">G4*C4*D4/100</f>
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="K4" s="13">
+        <f t="shared" ref="K4:K20" si="1">H4*C4*D4/100</f>
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="L4" s="13">
+        <f>I4*C4*D4/100</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="14">
+        <f>J4*Main!B$6+K4+L4</f>
+        <v>85.866666666666674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D5" s="11">
+        <f>100*0.02/0.18</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="E5" s="16">
+        <f>(D5*C5)/100-(Baseline!C5*Baseline!D5)/100</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>500</v>
+      </c>
+      <c r="G5" s="7">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7">
+        <v>10</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="K5" s="13">
+        <f t="shared" si="1"/>
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="L5" s="13">
+        <f t="shared" ref="L5:L20" si="2">I5*C5*D5/100</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="14">
+        <f>J5*Main!B$6+K5+L5</f>
+        <v>85.866666666666674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D6" s="11">
+        <f>100*0.02/0.18</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="E6" s="16">
+        <f>(D6*C6)/100-(Baseline!C6*Baseline!D6)/100</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <v>500</v>
+      </c>
+      <c r="G6" s="7">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7">
+        <v>10</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="K6" s="13">
+        <f t="shared" si="1"/>
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="L6" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="14">
+        <f>J6*Main!B$6+K6+L6</f>
+        <v>85.866666666666674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D7" s="11">
+        <f>100*0.02/0.18</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="E7" s="16">
+        <f>(D7*C7)/100-(Baseline!C7*Baseline!D7)/100</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>500</v>
+      </c>
+      <c r="G7" s="7">
+        <v>10</v>
+      </c>
+      <c r="H7" s="7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="K7" s="13">
+        <f t="shared" si="1"/>
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="L7" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="14">
+        <f>J7*Main!B$6+K7+L7</f>
+        <v>85.866666666666674</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="16">
+        <f>(D8*C8)/100-(Baseline!C8*Baseline!D8)/100</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>500</v>
+      </c>
+      <c r="G8" s="7">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7">
+        <v>10</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="14">
+        <f>J8*Main!B$6+K8+L8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <f>C3</f>
+        <v>0.16</v>
+      </c>
+      <c r="D9" s="11">
+        <v>20</v>
+      </c>
+      <c r="E9" s="16">
+        <f>(D9*C9)/100-(Baseline!C9*Baseline!D9)/100</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="7">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7">
+        <v>10</v>
+      </c>
+      <c r="I9" s="9">
+        <f>IF(E9&gt;0,(F9-F15),0)*E9*C9/100</f>
+        <v>1.0240000000000001E-2</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="L9" s="13">
+        <f>I9*C9*D9/100</f>
+        <v>3.2768000000000006E-4</v>
+      </c>
+      <c r="M9" s="14">
+        <f>J9*Main!B$6+K9+L9</f>
+        <v>88.320327679999991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" ref="C10:D20" si="3">C4</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D10" s="11">
+        <v>20</v>
+      </c>
+      <c r="E10" s="16">
+        <f>(D10*C10)/100-(Baseline!C10*Baseline!D10)/100</f>
+        <v>3.0800000000000004E-2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="7">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7">
+        <v>10</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" ref="I10:I15" si="4">IF(E10&gt;0,(F10-F16),0)*E10*C10/100</f>
+        <v>1.7248000000000006E-2</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L10" s="13">
+        <f>I10*C10*D10/100</f>
+        <v>9.6588800000000058E-4</v>
+      </c>
+      <c r="M10" s="14">
+        <f>J10*Main!B$6+K10+L10</f>
+        <v>154.56096588800003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="3"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D11" s="11">
+        <v>20</v>
+      </c>
+      <c r="E11" s="16">
+        <f>(D11*C11)/100-(Baseline!C11*Baseline!D11)/100</f>
+        <v>3.0800000000000004E-2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="7">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7">
+        <v>10</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="4"/>
+        <v>1.7248000000000006E-2</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L11" s="13">
+        <f t="shared" si="2"/>
+        <v>9.6588800000000058E-4</v>
+      </c>
+      <c r="M11" s="14">
+        <f>J11*Main!B$6+K11+L11</f>
+        <v>154.56096588800003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="3"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D12" s="11">
+        <v>20</v>
+      </c>
+      <c r="E12" s="16">
+        <f>(D12*C12)/100-(Baseline!C12*Baseline!D12)/100</f>
+        <v>3.0800000000000004E-2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="7">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7">
+        <v>10</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="4"/>
+        <v>1.7248000000000006E-2</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L12" s="13">
+        <f t="shared" si="2"/>
+        <v>9.6588800000000058E-4</v>
+      </c>
+      <c r="M12" s="14">
+        <f>J12*Main!B$6+K12+L12</f>
+        <v>154.56096588800003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="3"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D13" s="11">
+        <v>20</v>
+      </c>
+      <c r="E13" s="16">
+        <f>(D13*C13)/100-(Baseline!C13*Baseline!D13)/100</f>
+        <v>3.0800000000000004E-2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="7">
+        <v>10</v>
+      </c>
+      <c r="H13" s="7">
+        <v>10</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="4"/>
+        <v>1.7248000000000006E-2</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K13" s="13">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="L13" s="13">
+        <f>I13*C13*D13/100</f>
+        <v>9.6588800000000058E-4</v>
+      </c>
+      <c r="M13" s="14">
+        <f>J13*Main!B$6+K13+L13</f>
+        <v>154.56096588800003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="D14" s="11">
+        <v>20</v>
+      </c>
+      <c r="E14" s="16">
+        <f>(D14*C14)/100-(Baseline!C14*Baseline!D14)/100</f>
+        <v>0.03</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="7">
+        <v>10</v>
+      </c>
+      <c r="H14" s="7">
+        <v>10</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" si="4"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="L14" s="13">
+        <f t="shared" si="2"/>
+        <v>2.6999999999999995E-4</v>
+      </c>
+      <c r="M14" s="14">
+        <f>J14*Main!B$6+K14+L14</f>
+        <v>82.800269999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" si="3"/>
+        <v>0.16</v>
+      </c>
+      <c r="D15" s="11">
+        <f>100-D3-D9</f>
+        <v>79</v>
+      </c>
+      <c r="E15" s="16">
+        <f>(D15*C15)/100-(Baseline!C15*Baseline!D15)/100</f>
+        <v>-3.1999999999999973E-2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>800</v>
+      </c>
+      <c r="G15" s="7">
+        <v>10</v>
+      </c>
+      <c r="H15" s="7">
+        <v>10</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <f t="shared" si="0"/>
+        <v>1.264</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" si="1"/>
+        <v>1.264</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="14">
+        <f>J15*Main!B$6+K15+L15</f>
+        <v>348.86400000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" si="3"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D16" s="11">
+        <f t="shared" ref="D16:D20" si="5">100-D4-D10</f>
+        <v>68.888888888888886</v>
+      </c>
+      <c r="E16" s="16">
+        <f>(D16*C16)/100-(Baseline!C16*Baseline!D16)/100</f>
+        <v>-2.8311111111111092E-2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>800</v>
+      </c>
+      <c r="G16" s="7">
+        <v>10</v>
+      </c>
+      <c r="H16" s="7">
+        <v>10</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
+        <f t="shared" si="0"/>
+        <v>1.9288888888888889</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="shared" si="1"/>
+        <v>1.9288888888888889</v>
+      </c>
+      <c r="L16" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="14">
+        <f>J16*Main!B$6+K16+L16</f>
+        <v>532.37333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" si="3"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D17" s="11">
+        <f t="shared" si="5"/>
+        <v>68.888888888888886</v>
+      </c>
+      <c r="E17" s="16">
+        <f>(D17*C17)/100-(Baseline!C17*Baseline!D17)/100</f>
+        <v>-2.8311111111111092E-2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>800</v>
+      </c>
+      <c r="G17" s="7">
+        <v>10</v>
+      </c>
+      <c r="H17" s="7">
+        <v>10</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
+        <f t="shared" si="0"/>
+        <v>1.9288888888888889</v>
+      </c>
+      <c r="K17" s="13">
+        <f t="shared" si="1"/>
+        <v>1.9288888888888889</v>
+      </c>
+      <c r="L17" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="14">
+        <f>J17*Main!B$6+K17+L17</f>
+        <v>532.37333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8">
+        <f t="shared" si="3"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D18" s="11">
+        <f t="shared" si="5"/>
+        <v>68.888888888888886</v>
+      </c>
+      <c r="E18" s="16">
+        <f>(D18*C18)/100-(Baseline!C18*Baseline!D18)/100</f>
+        <v>-2.8311111111111092E-2</v>
+      </c>
+      <c r="F18" s="7">
+        <v>800</v>
+      </c>
+      <c r="G18" s="7">
+        <v>10</v>
+      </c>
+      <c r="H18" s="7">
+        <v>10</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13">
+        <f t="shared" si="0"/>
+        <v>1.9288888888888889</v>
+      </c>
+      <c r="K18" s="13">
+        <f t="shared" si="1"/>
+        <v>1.9288888888888889</v>
+      </c>
+      <c r="L18" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="14">
+        <f>J18*Main!B$6+K18+L18</f>
+        <v>532.37333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" si="3"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="5"/>
+        <v>68.888888888888886</v>
+      </c>
+      <c r="E19" s="16">
+        <f>(D19*C19)/100-(Baseline!C19*Baseline!D19)/100</f>
+        <v>-2.8311111111111092E-2</v>
+      </c>
+      <c r="F19" s="7">
+        <v>800</v>
+      </c>
+      <c r="G19" s="7">
+        <v>10</v>
+      </c>
+      <c r="H19" s="7">
+        <v>10</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13">
+        <f t="shared" si="0"/>
+        <v>1.9288888888888889</v>
+      </c>
+      <c r="K19" s="13">
+        <f t="shared" si="1"/>
+        <v>1.9288888888888889</v>
+      </c>
+      <c r="L19" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="14">
+        <f>J19*Main!B$6+K19+L19</f>
+        <v>532.37333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="E20" s="16">
+        <f>(D20*C20)/100-(Baseline!C20*Baseline!D20)/100</f>
+        <v>-0.03</v>
+      </c>
+      <c r="F20" s="7">
+        <v>800</v>
+      </c>
+      <c r="G20" s="7">
+        <v>10</v>
+      </c>
+      <c r="H20" s="7">
+        <v>10</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="13">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="K20" s="13">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="L20" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="14">
+        <f>J20*Main!B$6+K20+L20</f>
+        <v>331.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="14">
+        <f>M3+M9+M15</f>
+        <v>441.60032768000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="14">
+        <f t="shared" ref="M23:M27" si="6">M4+M10+M16</f>
+        <v>772.80096588800006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" s="14">
         <f t="shared" si="6"/>
-        <v>414.22500000000002</v>
+        <v>772.80096588800006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="14">
+        <f t="shared" si="6"/>
+        <v>772.80096588800006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="14">
+        <f t="shared" si="6"/>
+        <v>772.80096588800006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" s="14">
+        <f t="shared" si="6"/>
+        <v>414.00027</v>
       </c>
     </row>
   </sheetData>
@@ -1572,4 +2605,1020 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB6CF07-AA8A-4DCE-8BA1-8605C04DDA5B}">
+  <dimension ref="A1:M27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="6" width="25.81640625" customWidth="1"/>
+    <col min="7" max="7" width="22.6328125" customWidth="1"/>
+    <col min="8" max="8" width="23.26953125" customWidth="1"/>
+    <col min="9" max="9" width="22.36328125" customWidth="1"/>
+    <col min="10" max="10" width="15.1796875" customWidth="1"/>
+    <col min="11" max="11" width="22.7265625" customWidth="1"/>
+    <col min="12" max="12" width="18.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.16</v>
+      </c>
+      <c r="D3" s="11">
+        <v>15</v>
+      </c>
+      <c r="E3" s="16">
+        <f>(D3*C3)/100-(Baseline!C3*Baseline!D3)/100</f>
+        <v>2.24E-2</v>
+      </c>
+      <c r="F3" s="7">
+        <v>500</v>
+      </c>
+      <c r="G3" s="7">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7">
+        <v>10</v>
+      </c>
+      <c r="I3" s="9">
+        <f>IF(E3&gt;0,(F3-F15),0)*E3*C3/100</f>
+        <v>-1.0751999999999999E-2</v>
+      </c>
+      <c r="J3" s="13">
+        <f>G3*C3*D3/100</f>
+        <v>0.24</v>
+      </c>
+      <c r="K3" s="13">
+        <f>H3*C3*D3/100</f>
+        <v>0.24</v>
+      </c>
+      <c r="L3" s="13">
+        <f>I3*C3*D3/100</f>
+        <v>-2.5804799999999998E-4</v>
+      </c>
+      <c r="M3" s="14">
+        <f>J3*Main!B$6+K3+L3</f>
+        <v>66.239741951999989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D4" s="11">
+        <v>15</v>
+      </c>
+      <c r="E4" s="16">
+        <f>(D4*C4)/100-(Baseline!C4*Baseline!D4)/100</f>
+        <v>1.0888888888888892E-2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>500</v>
+      </c>
+      <c r="G4" s="7">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7">
+        <v>10</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" ref="I3:I7" si="0">IF(E4&gt;0,(F4-F16),0)*E4*C4/100</f>
+        <v>-9.1466666666666693E-3</v>
+      </c>
+      <c r="J4" s="13">
+        <f t="shared" ref="J4:J20" si="1">G4*C4*D4/100</f>
+        <v>0.4200000000000001</v>
+      </c>
+      <c r="K4" s="13">
+        <f t="shared" ref="K4:K20" si="2">H4*C4*D4/100</f>
+        <v>0.4200000000000001</v>
+      </c>
+      <c r="L4" s="13">
+        <f>I4*C4*D4/100</f>
+        <v>-3.8416000000000014E-4</v>
+      </c>
+      <c r="M4" s="14">
+        <f>J4*Main!B$6+K4+L4</f>
+        <v>115.91961584000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D5" s="11">
+        <v>15</v>
+      </c>
+      <c r="E5" s="16">
+        <f>(D5*C5)/100-(Baseline!C5*Baseline!D5)/100</f>
+        <v>1.0888888888888892E-2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>500</v>
+      </c>
+      <c r="G5" s="7">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7">
+        <v>10</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" si="0"/>
+        <v>-9.1466666666666693E-3</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" si="1"/>
+        <v>0.4200000000000001</v>
+      </c>
+      <c r="K5" s="13">
+        <f t="shared" si="2"/>
+        <v>0.4200000000000001</v>
+      </c>
+      <c r="L5" s="13">
+        <f t="shared" ref="L5:L20" si="3">I5*C5*D5/100</f>
+        <v>-3.8416000000000014E-4</v>
+      </c>
+      <c r="M5" s="14">
+        <f>J5*Main!B$6+K5+L5</f>
+        <v>115.91961584000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D6" s="11">
+        <v>15</v>
+      </c>
+      <c r="E6" s="16">
+        <f>(D6*C6)/100-(Baseline!C6*Baseline!D6)/100</f>
+        <v>1.0888888888888892E-2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>500</v>
+      </c>
+      <c r="G6" s="7">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7">
+        <v>10</v>
+      </c>
+      <c r="I6" s="9">
+        <f t="shared" si="0"/>
+        <v>-9.1466666666666693E-3</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" si="1"/>
+        <v>0.4200000000000001</v>
+      </c>
+      <c r="K6" s="13">
+        <f t="shared" si="2"/>
+        <v>0.4200000000000001</v>
+      </c>
+      <c r="L6" s="13">
+        <f t="shared" si="3"/>
+        <v>-3.8416000000000014E-4</v>
+      </c>
+      <c r="M6" s="14">
+        <f>J6*Main!B$6+K6+L6</f>
+        <v>115.91961584000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D7" s="11">
+        <v>15</v>
+      </c>
+      <c r="E7" s="16">
+        <f>(D7*C7)/100-(Baseline!C7*Baseline!D7)/100</f>
+        <v>1.0888888888888892E-2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>500</v>
+      </c>
+      <c r="G7" s="7">
+        <v>10</v>
+      </c>
+      <c r="H7" s="7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="9">
+        <f t="shared" si="0"/>
+        <v>-9.1466666666666693E-3</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="1"/>
+        <v>0.4200000000000001</v>
+      </c>
+      <c r="K7" s="13">
+        <f t="shared" si="2"/>
+        <v>0.4200000000000001</v>
+      </c>
+      <c r="L7" s="13">
+        <f t="shared" si="3"/>
+        <v>-3.8416000000000014E-4</v>
+      </c>
+      <c r="M7" s="14">
+        <f>J7*Main!B$6+K7+L7</f>
+        <v>115.91961584000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="D8" s="11">
+        <v>15</v>
+      </c>
+      <c r="E8" s="16">
+        <f>(D8*C8)/100-(Baseline!C8*Baseline!D8)/100</f>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>500</v>
+      </c>
+      <c r="G8" s="7">
+        <v>10</v>
+      </c>
+      <c r="H8" s="7">
+        <v>10</v>
+      </c>
+      <c r="I8" s="9">
+        <f>IF(E8&gt;0,(F8-F20),0)*E8*C8/100</f>
+        <v>-1.0125E-2</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" si="1"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="K8" s="13">
+        <f t="shared" si="2"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="L8" s="13">
+        <f t="shared" si="3"/>
+        <v>-2.2781249999999999E-4</v>
+      </c>
+      <c r="M8" s="14">
+        <f>J8*Main!B$6+K8+L8</f>
+        <v>62.099772187500001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <f>C3</f>
+        <v>0.16</v>
+      </c>
+      <c r="D9" s="11">
+        <f>Baseline!D9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
+        <f>(D9*C9)/100-(Baseline!C9*Baseline!D9)/100</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="7">
+        <v>10</v>
+      </c>
+      <c r="H9" s="7">
+        <v>10</v>
+      </c>
+      <c r="I9" s="9">
+        <f>IF(E9&gt;0,(F9-F15),0)*E9*C9/100</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="13">
+        <f>I9*C9*D9/100</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="14">
+        <f>J9*Main!B$6+K9+L9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <f t="shared" ref="C10:D20" si="4">C4</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D10" s="11">
+        <f>Baseline!D10</f>
+        <v>9</v>
+      </c>
+      <c r="E10" s="16">
+        <f>(D10*C10)/100-(Baseline!C10*Baseline!D10)/100</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="7">
+        <v>10</v>
+      </c>
+      <c r="H10" s="7">
+        <v>10</v>
+      </c>
+      <c r="I10" s="9">
+        <f t="shared" ref="I10:I14" si="5">IF(E10&gt;0,(F10-F16),0)*E10*C10/100</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="1"/>
+        <v>0.252</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" si="2"/>
+        <v>0.252</v>
+      </c>
+      <c r="L10" s="13">
+        <f>I10*C10*D10/100</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="14">
+        <f>J10*Main!B$6+K10+L10</f>
+        <v>69.551999999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <f t="shared" si="4"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D11" s="11">
+        <f>Baseline!D11</f>
+        <v>9</v>
+      </c>
+      <c r="E11" s="16">
+        <f>(D11*C11)/100-(Baseline!C11*Baseline!D11)/100</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="7">
+        <v>10</v>
+      </c>
+      <c r="H11" s="7">
+        <v>10</v>
+      </c>
+      <c r="I11" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
+        <f t="shared" si="1"/>
+        <v>0.252</v>
+      </c>
+      <c r="K11" s="13">
+        <f t="shared" si="2"/>
+        <v>0.252</v>
+      </c>
+      <c r="L11" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="14">
+        <f>J11*Main!B$6+K11+L11</f>
+        <v>69.551999999999992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <f t="shared" si="4"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D12" s="11">
+        <f>Baseline!D12</f>
+        <v>9</v>
+      </c>
+      <c r="E12" s="16">
+        <f>(D12*C12)/100-(Baseline!C12*Baseline!D12)/100</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="7">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7">
+        <v>10</v>
+      </c>
+      <c r="I12" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="1"/>
+        <v>0.252</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="shared" si="2"/>
+        <v>0.252</v>
+      </c>
+      <c r="L12" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="14">
+        <f>J12*Main!B$6+K12+L12</f>
+        <v>69.551999999999992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <f t="shared" si="4"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D13" s="11">
+        <f>Baseline!D13</f>
+        <v>9</v>
+      </c>
+      <c r="E13" s="16">
+        <f>(D13*C13)/100-(Baseline!C13*Baseline!D13)/100</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="7">
+        <v>10</v>
+      </c>
+      <c r="H13" s="7">
+        <v>10</v>
+      </c>
+      <c r="I13" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
+        <f t="shared" si="1"/>
+        <v>0.252</v>
+      </c>
+      <c r="K13" s="13">
+        <f t="shared" si="2"/>
+        <v>0.252</v>
+      </c>
+      <c r="L13" s="13">
+        <f>I13*C13*D13/100</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="14">
+        <f>J13*Main!B$6+K13+L13</f>
+        <v>69.551999999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="D14" s="11">
+        <f>Baseline!D14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <f>(D14*C14)/100-(Baseline!C14*Baseline!D14)/100</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="7">
+        <v>10</v>
+      </c>
+      <c r="H14" s="7">
+        <v>10</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="14">
+        <f>J14*Main!B$6+K14+L14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8">
+        <f t="shared" si="4"/>
+        <v>0.16</v>
+      </c>
+      <c r="D15" s="11">
+        <f>100-D3-D9</f>
+        <v>85</v>
+      </c>
+      <c r="E15" s="16">
+        <f>(D15*C15)/100-(Baseline!C15*Baseline!D15)/100</f>
+        <v>-2.2399999999999975E-2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>800</v>
+      </c>
+      <c r="G15" s="7">
+        <v>10</v>
+      </c>
+      <c r="H15" s="7">
+        <v>10</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <f t="shared" si="1"/>
+        <v>1.36</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" si="2"/>
+        <v>1.36</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="14">
+        <f>J15*Main!B$6+K15+L15</f>
+        <v>375.36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8">
+        <f t="shared" si="4"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D16" s="11">
+        <f t="shared" ref="D16:D20" si="6">100-D4-D10</f>
+        <v>76</v>
+      </c>
+      <c r="E16" s="16">
+        <f>(D16*C16)/100-(Baseline!C16*Baseline!D16)/100</f>
+        <v>-8.3999999999999908E-3</v>
+      </c>
+      <c r="F16" s="7">
+        <v>800</v>
+      </c>
+      <c r="G16" s="7">
+        <v>10</v>
+      </c>
+      <c r="H16" s="7">
+        <v>10</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
+        <f t="shared" si="1"/>
+        <v>2.1280000000000001</v>
+      </c>
+      <c r="K16" s="13">
+        <f t="shared" si="2"/>
+        <v>2.1280000000000001</v>
+      </c>
+      <c r="L16" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="14">
+        <f>J16*Main!B$6+K16+L16</f>
+        <v>587.32800000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8">
+        <f t="shared" si="4"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D17" s="11">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="E17" s="16">
+        <f>(D17*C17)/100-(Baseline!C17*Baseline!D17)/100</f>
+        <v>-8.3999999999999908E-3</v>
+      </c>
+      <c r="F17" s="7">
+        <v>800</v>
+      </c>
+      <c r="G17" s="7">
+        <v>10</v>
+      </c>
+      <c r="H17" s="7">
+        <v>10</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
+        <f t="shared" si="1"/>
+        <v>2.1280000000000001</v>
+      </c>
+      <c r="K17" s="13">
+        <f t="shared" si="2"/>
+        <v>2.1280000000000001</v>
+      </c>
+      <c r="L17" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="14">
+        <f>J17*Main!B$6+K17+L17</f>
+        <v>587.32800000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8">
+        <f t="shared" si="4"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D18" s="11">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="E18" s="16">
+        <f>(D18*C18)/100-(Baseline!C18*Baseline!D18)/100</f>
+        <v>-8.3999999999999908E-3</v>
+      </c>
+      <c r="F18" s="7">
+        <v>800</v>
+      </c>
+      <c r="G18" s="7">
+        <v>10</v>
+      </c>
+      <c r="H18" s="7">
+        <v>10</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13">
+        <f t="shared" si="1"/>
+        <v>2.1280000000000001</v>
+      </c>
+      <c r="K18" s="13">
+        <f t="shared" si="2"/>
+        <v>2.1280000000000001</v>
+      </c>
+      <c r="L18" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="14">
+        <f>J18*Main!B$6+K18+L18</f>
+        <v>587.32800000000009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" si="4"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="E19" s="16">
+        <f>(D19*C19)/100-(Baseline!C19*Baseline!D19)/100</f>
+        <v>-8.3999999999999908E-3</v>
+      </c>
+      <c r="F19" s="7">
+        <v>800</v>
+      </c>
+      <c r="G19" s="7">
+        <v>10</v>
+      </c>
+      <c r="H19" s="7">
+        <v>10</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13">
+        <f t="shared" si="1"/>
+        <v>2.1280000000000001</v>
+      </c>
+      <c r="K19" s="13">
+        <f t="shared" si="2"/>
+        <v>2.1280000000000001</v>
+      </c>
+      <c r="L19" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="14">
+        <f>J19*Main!B$6+K19+L19</f>
+        <v>587.32800000000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="E20" s="16">
+        <f>(D20*C20)/100-(Baseline!C20*Baseline!D20)/100</f>
+        <v>-2.2499999999999992E-2</v>
+      </c>
+      <c r="F20" s="7">
+        <v>800</v>
+      </c>
+      <c r="G20" s="7">
+        <v>10</v>
+      </c>
+      <c r="H20" s="7">
+        <v>10</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="13">
+        <f t="shared" si="1"/>
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="K20" s="13">
+        <f t="shared" si="2"/>
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="L20" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="14">
+        <f>J20*Main!B$6+K20+L20</f>
+        <v>351.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="M21" s="15"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="14">
+        <f>M3+M9+M15</f>
+        <v>441.59974195199999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="14">
+        <f t="shared" ref="M23:M27" si="7">M4+M10+M16</f>
+        <v>772.79961584000011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M24" s="14">
+        <f t="shared" si="7"/>
+        <v>772.79961584000011</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="14">
+        <f t="shared" si="7"/>
+        <v>772.79961584000011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="14">
+        <f t="shared" si="7"/>
+        <v>772.79961584000011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" s="14">
+        <f t="shared" si="7"/>
+        <v>413.99977218749996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>